--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Progress</t>
   </si>
@@ -394,7 +394,7 @@
   <dimension ref="A4:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,101 +528,107 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f t="shared" ref="B16:B33" si="0" xml:space="preserve"> CHAR(CODE(B15) + 1)</f>
+        <f t="shared" ref="B16:B31" si="0" xml:space="preserve"> CHAR(CODE(B15) + 1)</f>
         <v>k</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>l</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>m</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>o</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>p</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>q</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>r</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>v</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>w</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>12</v>
       </c>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Progress</t>
   </si>
@@ -394,7 +394,7 @@
   <dimension ref="A4:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +549,12 @@
         <f t="shared" si="0"/>
         <v>m</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43607</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="str">

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Progress</t>
   </si>
@@ -394,7 +394,7 @@
   <dimension ref="A4:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +561,12 @@
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43607</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="str">

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>Progress</t>
   </si>
@@ -65,7 +65,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,7 +93,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2121"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,16 +116,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2121"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -393,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,10 +434,10 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>43600</v>
       </c>
     </row>
@@ -430,10 +445,10 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>43601</v>
       </c>
     </row>
@@ -441,10 +456,10 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>43606</v>
       </c>
     </row>
@@ -452,10 +467,10 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>43606</v>
       </c>
     </row>
@@ -463,10 +478,10 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>43600</v>
       </c>
     </row>
@@ -474,10 +489,10 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>43606</v>
       </c>
     </row>
@@ -485,10 +500,10 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>43606</v>
       </c>
     </row>
@@ -496,10 +511,10 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>43606</v>
       </c>
     </row>
@@ -507,10 +522,10 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>43606</v>
       </c>
     </row>
@@ -519,10 +534,10 @@
         <f xml:space="preserve"> CHAR(CODE(B14) + 1)</f>
         <v>j</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>43607</v>
       </c>
     </row>
@@ -531,16 +546,19 @@
         <f t="shared" ref="B16:B31" si="0" xml:space="preserve"> CHAR(CODE(B15) + 1)</f>
         <v>k</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>l</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>43607</v>
       </c>
     </row>
@@ -549,10 +567,10 @@
         <f t="shared" si="0"/>
         <v>m</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>43607</v>
       </c>
     </row>
@@ -561,10 +579,10 @@
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>43607</v>
       </c>
     </row>
@@ -573,229 +591,354 @@
         <f t="shared" si="0"/>
         <v>o</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43608</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>p</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43608</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>q</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>r</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>v</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>w</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f xml:space="preserve"> CHAR(CODE(B32) +1)</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" ref="B34:B57" si="1" xml:space="preserve"> CHAR(CODE(B33) +1)</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>G</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>H</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v>P</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
         <v>Q</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C57">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A4:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,8 +546,11 @@
         <f t="shared" ref="B16:B31" si="0" xml:space="preserve"> CHAR(CODE(B15) + 1)</f>
         <v>k</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43608</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -32,9 +32,6 @@
     <t>Letter</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A4:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,15 +427,15 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>43600</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>43601</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>43606</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>43606</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>43600</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>43606</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>43606</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>43606</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>43606</v>
@@ -535,7 +535,7 @@
         <v>j</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>43607</v>
@@ -547,7 +547,7 @@
         <v>k</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>43608</v>
@@ -559,7 +559,7 @@
         <v>l</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>43607</v>
@@ -571,7 +571,7 @@
         <v>m</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>43607</v>
@@ -583,7 +583,7 @@
         <v>n</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>43607</v>
@@ -595,7 +595,7 @@
         <v>o</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>43608</v>
@@ -607,7 +607,7 @@
         <v>p</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>43608</v>
@@ -618,8 +618,11 @@
         <f t="shared" si="0"/>
         <v>q</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43613</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -628,7 +631,7 @@
         <v>r</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -637,7 +640,7 @@
         <v>s</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -646,7 +649,7 @@
         <v>t</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
         <v>u</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -664,7 +667,7 @@
         <v>v</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -673,7 +676,7 @@
         <v>w</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -682,7 +685,7 @@
         <v>x</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -691,7 +694,7 @@
         <v>y</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -700,15 +703,15 @@
         <v>z</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -717,7 +720,7 @@
         <v>B</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -726,7 +729,7 @@
         <v>C</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>D</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -744,7 +747,7 @@
         <v>E</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -753,7 +756,7 @@
         <v>F</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -762,7 +765,7 @@
         <v>G</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -771,7 +774,7 @@
         <v>H</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -780,7 +783,7 @@
         <v>I</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -789,7 +792,7 @@
         <v>J</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
         <v>K</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -807,7 +810,7 @@
         <v>L</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -816,7 +819,7 @@
         <v>M</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -825,7 +828,7 @@
         <v>N</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -834,7 +837,7 @@
         <v>O</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -843,7 +846,7 @@
         <v>P</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -852,7 +855,7 @@
         <v>Q</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -861,7 +864,7 @@
         <v>R</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -870,7 +873,7 @@
         <v>S</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -879,7 +882,7 @@
         <v>T</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -888,7 +891,7 @@
         <v>U</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -897,7 +900,7 @@
         <v>V</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -906,7 +909,7 @@
         <v>W</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -915,7 +918,7 @@
         <v>X</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -924,7 +927,7 @@
         <v>Y</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -933,7 +936,7 @@
         <v>Z</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +630,11 @@
         <f t="shared" si="0"/>
         <v>r</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43613</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A4:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,8 +642,11 @@
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43613</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
   <si>
     <t>Progress</t>
   </si>
@@ -69,19 +69,52 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Semicolon</t>
+  </si>
+  <si>
+    <t>Comma</t>
+  </si>
+  <si>
+    <t>Dash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -116,11 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,551 +440,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D57"/>
+  <dimension ref="A4:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>43601</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>43606</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>43606</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>43606</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>43606</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>43606</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>43606</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="str">
         <f xml:space="preserve"> CHAR(CODE(B14) + 1)</f>
         <v>j</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>43607</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="str">
         <f t="shared" ref="B16:B31" si="0" xml:space="preserve"> CHAR(CODE(B15) + 1)</f>
         <v>k</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>43608</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>l</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>43607</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>m</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>43607</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>43607</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>o</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>43608</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>p</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>43608</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>q</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>43613</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>r</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>43613</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>43613</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>v</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="str">
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>w</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="str">
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="str">
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="str">
         <f xml:space="preserve"> CHAR(CODE(B32) +1)</f>
         <v>B</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="str">
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="str">
         <f t="shared" ref="B34:B57" si="1" xml:space="preserve"> CHAR(CODE(B33) +1)</f>
         <v>C</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="str">
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="str">
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="str">
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="str">
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>G</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="str">
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>H</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="str">
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="str">
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="str">
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>K</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="str">
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="str">
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="str">
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="str">
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="str">
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>P</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="str">
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Q</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="str">
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="str">
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="str">
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="str">
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="str">
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="str">
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="str">
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C66">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,10 +716,12 @@
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43613</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -727,10 +729,12 @@
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43613</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>Progress</t>
   </si>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -149,12 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D66"/>
+  <dimension ref="A3:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,721 +461,1086 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
         <v>43600</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
         <v>43601</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
         <v>43606</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
         <v>43606</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
         <v>43600</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
         <v>43606</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
         <v>43606</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
         <v>43606</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
         <v>43606</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="str">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="str">
         <f xml:space="preserve"> CHAR(CODE(B14) + 1)</f>
         <v>j</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
         <v>43607</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="str">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B31" si="0" xml:space="preserve"> CHAR(CODE(B15) + 1)</f>
         <v>k</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
         <v>43608</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="str">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>l</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
         <v>43607</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="str">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>m</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
         <v>43607</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="str">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
         <v>43607</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="str">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>o</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
         <v>43608</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="str">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>p</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
         <v>43608</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="str">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>q</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4">
         <v>43613</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="str">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>r</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
         <v>43613</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="str">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4">
         <v>43613</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="str">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
         <v>43613</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4">
         <v>43613</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>v</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str">
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>w</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="str">
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="str">
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="str">
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="str">
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="str">
         <f xml:space="preserve"> CHAR(CODE(B32) +1)</f>
         <v>B</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="str">
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="str">
         <f t="shared" ref="B34:B57" si="1" xml:space="preserve"> CHAR(CODE(B33) +1)</f>
         <v>C</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="str">
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="str">
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="str">
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="str">
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>G</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="str">
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>H</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="str">
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="str">
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="str">
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>K</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="str">
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="str">
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="str">
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="str">
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="str">
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>P</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="str">
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Q</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="str">
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="str">
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="str">
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="str">
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="str">
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="str">
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="str">
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="str">
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="str">
+      <c r="C55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="str">
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+      <c r="C57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="C58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+      <c r="C59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
+      <c r="C61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
+      <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+      <c r="C63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+      <c r="C64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+      <c r="C65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1"/>
+      <c r="C66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2">
+        <f xml:space="preserve"> B67+1</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2">
+        <f t="shared" ref="B69:B76" si="2" xml:space="preserve"> B68+1</f>
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C76">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +859,12 @@
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43614</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -873,10 +875,12 @@
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43614</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A3:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,10 +891,12 @@
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43614</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,8 +906,8 @@
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -920,8 +920,8 @@
         <f xml:space="preserve"> CHAR(CODE(B32) +1)</f>
         <v>B</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -934,8 +934,8 @@
         <f t="shared" ref="B34:B57" si="1" xml:space="preserve"> CHAR(CODE(B33) +1)</f>
         <v>C</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -948,8 +948,8 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -962,8 +962,8 @@
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -976,8 +976,8 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
+      <c r="C37" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -990,8 +990,8 @@
         <f t="shared" si="1"/>
         <v>G</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>13</v>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1004,10 +1004,12 @@
         <f t="shared" si="1"/>
         <v>H</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43627</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1018,10 +1020,12 @@
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43627</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1032,8 +1036,8 @@
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>13</v>
+      <c r="C41" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1046,8 +1050,8 @@
         <f t="shared" si="1"/>
         <v>K</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>13</v>
+      <c r="C42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1074,8 +1078,8 @@
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>13</v>
+      <c r="C44" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1088,8 +1092,8 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>13</v>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1116,8 +1120,8 @@
         <f t="shared" si="1"/>
         <v>P</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>13</v>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1130,8 +1134,8 @@
         <f t="shared" si="1"/>
         <v>Q</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>13</v>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1144,8 +1148,8 @@
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>13</v>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1158,8 +1162,8 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
+      <c r="C50" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1172,8 +1176,8 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>13</v>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1186,8 +1190,8 @@
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>13</v>
+      <c r="C52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1200,8 +1204,8 @@
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
+      <c r="C53" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1214,8 +1218,8 @@
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>13</v>
+      <c r="C54" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1242,8 +1246,8 @@
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>13</v>
+      <c r="C56" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1256,8 +1260,8 @@
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>13</v>
+      <c r="C57" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,9 @@
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="4">
+        <v>43627</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -923,7 +925,9 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="4">
+        <v>43627</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -937,7 +941,9 @@
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="4">
+        <v>43627</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -951,7 +957,9 @@
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="4">
+        <v>43627</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -965,7 +973,9 @@
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="4">
+        <v>43627</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -979,7 +989,9 @@
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="4">
+        <v>43627</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -993,7 +1005,9 @@
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="4">
+        <v>43627</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1039,7 +1053,9 @@
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="4">
+        <v>43627</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1053,7 +1069,9 @@
       <c r="C42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="4">
+        <v>43627</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1081,7 +1099,9 @@
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="4">
+        <v>43627</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1095,7 +1115,9 @@
       <c r="C45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="4">
+        <v>43627</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1123,7 +1145,9 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="4">
+        <v>43627</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1137,7 +1161,9 @@
       <c r="C48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="4">
+        <v>43627</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -1151,7 +1177,9 @@
       <c r="C49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="4">
+        <v>43627</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -1165,7 +1193,9 @@
       <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="4">
+        <v>43627</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1179,7 +1209,9 @@
       <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="4">
+        <v>43627</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -1193,7 +1225,9 @@
       <c r="C52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="4">
+        <v>43627</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -1207,7 +1241,9 @@
       <c r="C53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="4">
+        <v>43627</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1221,7 +1257,9 @@
       <c r="C54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="4">
+        <v>43627</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1249,7 +1287,9 @@
       <c r="C56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="4">
+        <v>43627</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1263,7 +1303,9 @@
       <c r="C57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="4">
+        <v>43627</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -1273,10 +1315,12 @@
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43628</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -74,9 +74,6 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Ms</t>
-  </si>
-  <si>
     <t>Mrs</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Dash</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
     <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>13</v>
@@ -1341,12 +1341,14 @@
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4">
+        <v>43628</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -1354,7 +1356,7 @@
     <row r="61" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>13</v>
@@ -1367,7 +1369,7 @@
     <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>13</v>
@@ -1380,7 +1382,7 @@
     <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>13</v>
@@ -1393,7 +1395,7 @@
     <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>13</v>
@@ -1406,7 +1408,7 @@
     <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>13</v>
@@ -1419,7 +1421,7 @@
     <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>13</v>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A3:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,10 +1330,12 @@
       <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4">
+        <v>43628</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -1358,10 +1360,12 @@
       <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="C61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4">
+        <v>43628</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>

--- a/documentation/completion-log.xlsx
+++ b/documentation/completion-log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Progress</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Completed</t>
@@ -123,7 +120,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,12 +130,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF2121"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,13 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1082,8 +1072,8 @@
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>13</v>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1128,8 +1118,8 @@
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>13</v>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1270,10 +1260,12 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2"/>
+      <c r="C55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43635</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1313,7 +1305,7 @@
     <row r="58" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>12</v>
@@ -1328,7 +1320,7 @@
     <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>12</v>
@@ -1343,7 +1335,7 @@
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>12</v>
@@ -1358,7 +1350,7 @@
     <row r="61" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>12</v>
@@ -1373,12 +1365,14 @@
     <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
+        <v>43635</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -1386,12 +1380,14 @@
     <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4">
+        <v>43635</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -1399,12 +1395,14 @@
     <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4">
+        <v>43635</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1412,12 +1410,14 @@
     <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43635</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -1425,12 +1425,14 @@
     <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="4">
+        <v>43635</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -1440,10 +1442,12 @@
       <c r="B67" s="2">
         <v>0</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="C67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4">
+        <v>43635</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -1454,10 +1458,12 @@
         <f xml:space="preserve"> B67+1</f>
         <v>1</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4">
+        <v>43635</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -1468,10 +1474,12 @@
         <f t="shared" ref="B69:B76" si="2" xml:space="preserve"> B68+1</f>
         <v>2</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4">
+        <v>43635</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -1482,10 +1490,12 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2"/>
+      <c r="C70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="4">
+        <v>43635</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -1496,10 +1506,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4">
+        <v>43635</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -1510,10 +1522,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="2"/>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="4">
+        <v>43635</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -1524,10 +1538,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="2"/>
+      <c r="C73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4">
+        <v>43635</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -1538,10 +1554,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="2"/>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="4">
+        <v>43635</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -1552,10 +1570,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2"/>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="4">
+        <v>43635</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -1566,10 +1586,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="4">
+        <v>43635</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
